--- a/halp/notebook/data/logreg_test_acc_all.xlsx
+++ b/halp/notebook/data/logreg_test_acc_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2277,11 +2277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246983968"/>
-        <c:axId val="246647136"/>
+        <c:axId val="14338336"/>
+        <c:axId val="14346096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246983968"/>
+        <c:axId val="14338336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246647136"/>
+        <c:crossAx val="14346096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2387,7 +2387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246647136"/>
+        <c:axId val="14346096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.92"/>
@@ -2499,7 +2499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246983968"/>
+        <c:crossAx val="14338336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,14 +3129,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
